--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1734355.350995201</v>
+        <v>1841584.792393288</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283179</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10167995.58834172</v>
+        <v>10181444.03372136</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>228.8485779884286</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>238.8921670289689</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -710,13 +712,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>70.63208010638135</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>132.3772174916579</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>336.9399104933171</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>249.9102553092361</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>5.628835263053819</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>96.50675189249552</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38.33803137561208</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>340.2664318486652</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>118.1692128216228</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>80.14525377254944</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1588,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>151.8518831495031</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>104.1233804225864</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422903</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2017,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U19" t="n">
-        <v>141.3831318263024</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>101.9154861872846</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>73.74785292486641</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0.6324680438227391</v>
       </c>
       <c r="F25" t="n">
-        <v>100.0416311957222</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,10 +2724,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>21.63824106825043</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.52079624060465</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2956,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>12.74007641194068</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>151.5133592021562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,10 +3198,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>94.30373791808249</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>212.4076860934765</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>63.16281301712667</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135544</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>58.21786903648842</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>121.8674042714187</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4144,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>112.5284434523316</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>60.11729550773637</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1479.530414586155</v>
+        <v>1078.689549231436</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>1078.689549231436</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>1078.689549231436</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>1078.689549231436</v>
       </c>
       <c r="F2" t="n">
         <v>837.3843300102556</v>
@@ -4325,16 +4327,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847234</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>1852.996172847234</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X2" t="n">
-        <v>1479.530414586155</v>
+        <v>1855.42872127137</v>
       </c>
       <c r="Y2" t="n">
-        <v>1479.530414586155</v>
+        <v>1465.289389295558</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4403,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>777.6069060507746</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009995</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.15405360694</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.2996089082458</v>
+        <v>842.3033321201472</v>
       </c>
       <c r="C4" t="n">
-        <v>201.3634259803388</v>
+        <v>673.3671491922403</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>523.2505097799045</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>375.3374161975114</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>228.447468699601</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4513,25 +4515,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T4" t="n">
-        <v>1203.519604647256</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U4" t="n">
-        <v>914.4012671510933</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V4" t="n">
-        <v>659.7167789452064</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="W4" t="n">
-        <v>370.2996089082458</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="X4" t="n">
-        <v>370.2996089082458</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="Y4" t="n">
-        <v>370.2996089082458</v>
+        <v>1023.951796950387</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1754.744438482647</v>
+        <v>1588.713578732507</v>
       </c>
       <c r="C5" t="n">
-        <v>1385.781921542235</v>
+        <v>1588.713578732507</v>
       </c>
       <c r="D5" t="n">
-        <v>1027.516222935484</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E5" t="n">
-        <v>1027.516222935484</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>616.5303181458769</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>1975.313418796628</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>1975.313418796628</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>1975.313418796628</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.48361052258</v>
+        <v>1975.313418796628</v>
       </c>
       <c r="Y5" t="n">
-        <v>2141.344278546768</v>
+        <v>1975.313418796628</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>331.7238083514195</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>162.7876254235126</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>162.7876254235126</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>162.7876254235126</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>162.7876254235126</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>162.7876254235126</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1829.812980520315</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1829.812980520315</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1829.812980520315</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W7" t="n">
-        <v>1540.395810483355</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="X7" t="n">
-        <v>1312.406259585337</v>
+        <v>734.1648523251894</v>
       </c>
       <c r="Y7" t="n">
-        <v>1091.613680441807</v>
+        <v>513.3722731816592</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>859.6852901911619</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>859.6852901911619</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>859.6852901911619</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>62.91113280331015</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2009.890220492175</v>
       </c>
       <c r="X8" t="n">
-        <v>2388.243802269322</v>
+        <v>1636.424462231096</v>
       </c>
       <c r="Y8" t="n">
-        <v>1998.104470293511</v>
+        <v>1246.285130255284</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500112</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>507.2413987429764</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>801.9449557744479</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>922.6774975139006</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1517.083278840534</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1294.10479803527</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1004.986460539107</v>
       </c>
       <c r="V10" t="n">
-        <v>1513.842048484845</v>
+        <v>750.3019723332206</v>
       </c>
       <c r="W10" t="n">
-        <v>1224.424878447885</v>
+        <v>460.8848022962601</v>
       </c>
       <c r="X10" t="n">
-        <v>1143.470076657431</v>
+        <v>232.8952513982428</v>
       </c>
       <c r="Y10" t="n">
-        <v>922.6774975139006</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5036,16 +5038,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5124,22 +5126,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5236,13 +5238,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.843151638089</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101821</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>422.7903292978464</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683287</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U19" t="n">
-        <v>1901.695539989114</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.011051783227</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5726,55 +5728,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3047.734188001553</v>
+        <v>734.6461798836023</v>
       </c>
       <c r="C22" t="n">
-        <v>2878.798005073646</v>
+        <v>734.6461798836023</v>
       </c>
       <c r="D22" t="n">
-        <v>2728.68136566131</v>
+        <v>734.6461798836023</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.68136566131</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.68136566131</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.48526637619</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218388</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866302</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296626</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.294667918808</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4329.693202941749</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>4040.617976285947</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3785.933488080061</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3496.5163180431</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3268.526767145083</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>3047.734188001553</v>
+        <v>916.294644713842</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1052.829365488568</v>
+        <v>951.3929232910551</v>
       </c>
       <c r="C25" t="n">
-        <v>883.8931825606608</v>
+        <v>782.4567403631482</v>
       </c>
       <c r="D25" t="n">
-        <v>733.776543148325</v>
+        <v>632.3401009508125</v>
       </c>
       <c r="E25" t="n">
-        <v>585.8634495659319</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429802</v>
@@ -6154,7 +6156,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6163,34 +6165,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U25" t="n">
-        <v>2227.361618603202</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V25" t="n">
-        <v>1972.677130397315</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="W25" t="n">
-        <v>1683.259960360355</v>
+        <v>1581.823518162842</v>
       </c>
       <c r="X25" t="n">
-        <v>1455.270409462337</v>
+        <v>1353.833967264825</v>
       </c>
       <c r="Y25" t="n">
-        <v>1234.477830318807</v>
+        <v>1133.041388121295</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282754</v>
+        <v>430.782665075334</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458823</v>
+        <v>282.8695714929408</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6391,7 +6393,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6400,34 +6402,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6452,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
@@ -6485,25 +6487,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>248.3972582582391</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>106.6854271004372</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6652,19 +6654,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1433.359422267661</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6686,28 +6688,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6716,10 +6718,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>738.7889117913853</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>1366.386875345992</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1918.296605585279</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2341.919755080347</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,13 +6931,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6953,22 +6955,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7010,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>454.6048385560544</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>949.9304447718132</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
         <v>1577.52840832642</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096656</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190824</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703114</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>695.5020655703114</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>695.5020655703114</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,22 +7399,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,40 +7423,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356194</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>548.795341502774</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>401.9053940048636</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>234.7092947197436</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>2104.263230450254</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1849.578742244367</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1560.161572207406</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1332.172021309389</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>1111.379442165859</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694708</v>
@@ -7676,10 +7678,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098242</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819173</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695815</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>516.3896878871884</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924459</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718572</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783594</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640064</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8055,31 +8057,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>186.4490126143855</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>98.24448441976853</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>114.3555089013354</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>211.0329012241569</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154995</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-1.104943754957264e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23419,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>134.6711151870879</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>42.31058222398281</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U19" t="n">
-        <v>144.8013425629417</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>44.51847645928456</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>107.2784330767782</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>145.8014946027464</v>
       </c>
       <c r="F25" t="n">
-        <v>45.37941682720908</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -24418,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>123.7828069546808</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.85445046951701</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>68.52575990662484</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>67.07129414993855</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>191.8807364711616</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>83.2711496294425</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>82.07684380973546</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>164.3170701178254</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>32.8926045705996</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>226.4057028288546</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>889939.2301842526</v>
+        <v>897069.5431855377</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>889939.2301842526</v>
+        <v>897069.5431855377</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>875001.9222469045</v>
+        <v>875001.9222469046</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>875001.9222469047</v>
+        <v>875001.9222469045</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>875001.9222469046</v>
+        <v>875001.9222469045</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>875001.9222469046</v>
+        <v>875001.9222469045</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="H2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="G2" t="n">
-        <v>544823.9547907544</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907544</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="J2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907541</v>
-      </c>
       <c r="L2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="N2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>507485.4416245464</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,13 +26420,13 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>87304.3471980833</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>87304.34719808324</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
@@ -26433,10 +26435,10 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731938</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731936</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
@@ -26454,10 +26456,10 @@
         <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
+        <v>8117.312426732029</v>
+      </c>
+      <c r="P4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8117.312426731975</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-787804.3616192365</v>
+        <v>-787804.3616192364</v>
       </c>
       <c r="C6" t="n">
-        <v>155526.1652868087</v>
+        <v>326947.421956683</v>
       </c>
       <c r="D6" t="n">
-        <v>358964.906898915</v>
+        <v>326947.4219566833</v>
       </c>
       <c r="E6" t="n">
-        <v>110171.6507327597</v>
+        <v>-71901.32908443151</v>
       </c>
       <c r="F6" t="n">
+        <v>435584.1125401152</v>
+      </c>
+      <c r="G6" t="n">
+        <v>435584.1125401148</v>
+      </c>
+      <c r="H6" t="n">
+        <v>435584.1125401147</v>
+      </c>
+      <c r="I6" t="n">
         <v>435584.1125401151</v>
       </c>
-      <c r="G6" t="n">
-        <v>435584.1125401153</v>
-      </c>
-      <c r="H6" t="n">
-        <v>435584.1125401153</v>
-      </c>
-      <c r="I6" t="n">
-        <v>435584.112540115</v>
-      </c>
       <c r="J6" t="n">
-        <v>267978.9347301323</v>
+        <v>267978.9347301325</v>
       </c>
       <c r="K6" t="n">
-        <v>386474.0198340606</v>
+        <v>435584.1125401151</v>
       </c>
       <c r="L6" t="n">
-        <v>435584.1125401148</v>
+        <v>435584.1125401147</v>
       </c>
       <c r="M6" t="n">
-        <v>350529.0846046031</v>
+        <v>302976.8188111879</v>
       </c>
       <c r="N6" t="n">
         <v>435584.112540115</v>
       </c>
       <c r="O6" t="n">
-        <v>435584.1125401151</v>
+        <v>435584.1125401148</v>
       </c>
       <c r="P6" t="n">
-        <v>435584.1125401151</v>
+        <v>435584.1125401148</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="O4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099649</v>
@@ -26960,13 +26962,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>433.9106082241352</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>136.4243137825789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>167.9838787127425</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>95.67451993842283</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>88.37147850555405</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>17.74313112736581</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>161.0114703442174</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>141.6226738920751</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>123.0421973836737</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>344.3958102878685</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>8.974536868747805</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>76.49324754011472</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>145.5644016164877</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,13 +31846,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>139.5228722182826</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
@@ -31859,10 +31861,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551105</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,7 +32578,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32740,7 +32742,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32789,31 +32791,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>245.8118639189571</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>232.75998908852</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q24" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32856,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32880,7 +32882,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32892,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162543</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32979,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33026,31 +33028,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>282.8216163968498</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>437.8531046913755</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33119,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33263,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33275,16 +33277,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>433.9798411722591</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.2560498238272</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>351.1157147121648</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>570.6116741576914</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>626.4629682828348</v>
       </c>
       <c r="P42" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>484.1293732522357</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>489.4415840126424</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>230.83623123219</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091734</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>397.6203974676416</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634693</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>8.181160134949316</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
@@ -35507,10 +35509,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075146</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409638</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191315</v>
@@ -36288,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969388</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>98.78558167418976</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36525,7 +36527,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36589,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>140.6875824748315</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>303.8786972770453</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36762,7 +36764,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36911,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36923,16 +36925,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>213.2742757378057</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>213.2742757378059</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>432.0572943778172</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="P42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318685</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1841584.792393288</v>
+        <v>1837447.635143136</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>238.8921670289689</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -679,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>204.9088354658385</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>70.63208010638135</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>93.56176698799894</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>336.9399104933171</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>218.510215667732</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>50.98074812542792</v>
       </c>
       <c r="H7" t="n">
-        <v>5.628835263053819</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>220.8789552701352</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>340.2664318486652</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>23.94563726208625</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>118.1692128216228</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.0291980517616</v>
+        <v>102.041750371295</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>246.4755938422903</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>107.4021082756239</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>223.3486291137924</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>101.9154861872846</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6324680438227391</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>21.63824106825043</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>12.74007641194068</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>35.41770597126702</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>206.2895129765288</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>212.4076860934765</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>35.88641949135544</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>58.21786903648842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4143,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>111.321323070213</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>60.11729550773637</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1078.689549231436</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="C2" t="n">
-        <v>1078.689549231436</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D2" t="n">
-        <v>1078.689549231436</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>1078.689549231436</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
         <v>837.3843300102556</v>
@@ -4330,16 +4330,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2355.36070671749</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>2024.297819373919</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.89447953245</v>
+        <v>2024.297819373919</v>
       </c>
       <c r="X2" t="n">
-        <v>1855.42872127137</v>
+        <v>2024.297819373919</v>
       </c>
       <c r="Y2" t="n">
-        <v>1465.289389295558</v>
+        <v>1634.158487398107</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
@@ -4412,22 +4412,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>842.3033321201472</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>673.3671491922403</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>523.2505097799045</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>375.3374161975114</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>228.447468699601</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.862713590079</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093917</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="V4" t="n">
-        <v>1244.744376093917</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="W4" t="n">
-        <v>1244.744376093917</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="X4" t="n">
-        <v>1244.744376093917</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y4" t="n">
-        <v>1023.951796950387</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1588.713578732507</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="C5" t="n">
-        <v>1588.713578732507</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>1146.776328918639</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>760.9880763203951</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>350.0021715307875</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>338.3378252954805</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872912</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923561</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532449</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796628</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.313418796628</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.313418796628</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X5" t="n">
-        <v>1975.313418796628</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y5" t="n">
-        <v>1975.313418796628</v>
+        <v>1505.04202752539</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J6" t="n">
         <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919905</v>
+        <v>909.2465818694947</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.93511215121</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748155</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924317</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756614</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>331.7238083514195</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>162.7876254235126</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>162.7876254235126</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>162.7876254235126</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>162.7876254235126</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
-        <v>162.7876254235126</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>962.1544032232067</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>962.1544032232067</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>734.1648523251894</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.3722731816592</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>859.6852901911619</v>
+        <v>728.3028554854563</v>
       </c>
       <c r="C8" t="n">
-        <v>859.6852901911619</v>
+        <v>359.3403385450446</v>
       </c>
       <c r="D8" t="n">
-        <v>859.6852901911619</v>
+        <v>359.3403385450446</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>359.3403385450446</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331015</v>
+        <v>352.3948377958412</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800308</v>
+        <v>340.7304915605341</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800308</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816075</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
         <v>2055.228484740839</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.593687005979</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.593687005979</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.593687005979</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>2009.890220492175</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X8" t="n">
-        <v>1636.424462231096</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y8" t="n">
-        <v>1246.285130255284</v>
+        <v>1114.902695549578</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500112</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429764</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744479</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800308</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800308</v>
+        <v>837.0793422748033</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800308</v>
+        <v>686.9627028624675</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800308</v>
+        <v>539.0496092800744</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800308</v>
+        <v>392.159661782164</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800308</v>
+        <v>224.1731970904426</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800308</v>
+        <v>75.4342989539488</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1517.083278840534</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1294.10479803527</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1004.986460539107</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>750.3019723332206</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>460.8848022962601</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>232.8952513982428</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.8952513982428</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="11">
@@ -5038,19 +5038,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5123,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>1051.622995973711</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>882.686813045804</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578601</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5512,10 +5512,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1682.382642959247</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1392.965472922287</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5770,10 +5770,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5834,7 +5834,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836023</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>734.6461798836023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>734.6461798836023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5919,7 +5919,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5928,34 +5928,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.294644713842</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468473</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438167</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.3929232910551</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>782.4567403631482</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>632.3401009508125</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1871.240688199803</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1581.823518162842</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1353.833967264825</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.041388121295</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6308,19 +6308,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517213</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876697</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876697</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>430.782665075334</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>282.8695714929408</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396418</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359457</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614396</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179095</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6545,13 +6545,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
         <v>2001.151557821488</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556949</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>415.5933575433592</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>415.5933575433592</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>415.5933575433592</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>248.3972582582391</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>106.6854271004372</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6779,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>727.9786782557277</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C34" t="n">
-        <v>559.0424953278208</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2411.187623003223</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2191.586158026164</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1902.510931370362</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.826443164475</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W34" t="n">
-        <v>1358.409273127515</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X34" t="n">
-        <v>1130.419722229497</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y34" t="n">
-        <v>909.6271430859674</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>929.7309773356195</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7159,37 +7159,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,31 +7393,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7426,22 +7426,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>696.7084350851671</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>696.7084350851671</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>548.795341502774</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>401.9053940048636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>234.7092947197436</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7663,34 +7663,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.822296052219</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>98.24448441976853</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>114.3555089013354</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241569</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154995</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-1.104943754957264e-12</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664508</v>
+        <v>46.57372264691732</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>39.70888054695388</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>110.0033420516644</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>28.78901421003556</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>44.51847645928456</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>145.8014946027464</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>26.01259675821728</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>123.7828069546808</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.52575990662484</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>145.6085800303776</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>45.84813034729919</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>13.30196929556064</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>82.07684380973546</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>69.70496293143164</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>897069.5431855377</v>
+        <v>897069.5431855376</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>897069.5431855377</v>
+        <v>897069.5431855376</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>875001.9222469045</v>
+        <v>875001.9222469046</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>875001.9222469046</v>
+        <v>875001.9222469045</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>875001.9222469046</v>
+        <v>875001.9222469045</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>875001.9222469046</v>
+        <v>875001.9222469045</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>875001.9222469045</v>
+        <v>875001.9222469046</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="J2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="L2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="H2" t="n">
+      <c r="P2" t="n">
         <v>544823.9547907541</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245464</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
@@ -26435,10 +26435,10 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731938</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
@@ -26456,7 +26456,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426732029</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>326947.421956683</v>
       </c>
       <c r="D6" t="n">
-        <v>326947.4219566833</v>
+        <v>326947.4219566827</v>
       </c>
       <c r="E6" t="n">
-        <v>-71901.32908443151</v>
+        <v>-72248.70833878795</v>
       </c>
       <c r="F6" t="n">
-        <v>435584.1125401152</v>
+        <v>435236.7332857581</v>
       </c>
       <c r="G6" t="n">
-        <v>435584.1125401148</v>
+        <v>435236.7332857582</v>
       </c>
       <c r="H6" t="n">
-        <v>435584.1125401147</v>
+        <v>435236.7332857582</v>
       </c>
       <c r="I6" t="n">
-        <v>435584.1125401151</v>
+        <v>435236.7332857579</v>
       </c>
       <c r="J6" t="n">
-        <v>267978.9347301325</v>
+        <v>267631.5554757754</v>
       </c>
       <c r="K6" t="n">
-        <v>435584.1125401151</v>
+        <v>435236.7332857578</v>
       </c>
       <c r="L6" t="n">
-        <v>435584.1125401147</v>
+        <v>435236.733285758</v>
       </c>
       <c r="M6" t="n">
-        <v>302976.8188111879</v>
+        <v>302629.4395568309</v>
       </c>
       <c r="N6" t="n">
-        <v>435584.112540115</v>
+        <v>435236.7332857578</v>
       </c>
       <c r="O6" t="n">
-        <v>435584.1125401148</v>
+        <v>435236.7332857579</v>
       </c>
       <c r="P6" t="n">
-        <v>435584.1125401148</v>
+        <v>435236.7332857581</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26828,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241352</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>167.9838787127425</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>46.13641466262357</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>95.67451993842283</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>127.186929009213</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>17.74313112736581</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>82.50833689467333</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H7" t="n">
-        <v>141.6226738920751</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,19 +27824,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>80.13959729227014</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247055</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>8.974536868747805</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>80.85095794181433</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>76.49324754011472</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,7 +31281,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
@@ -31299,7 +31299,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166594</v>
@@ -31314,13 +31314,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
@@ -31369,22 +31369,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
@@ -31451,10 +31451,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
@@ -31469,13 +31469,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
         <v>0.09187523529024984</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491898</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767378</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335768</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,34 +32074,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,34 +32311,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,7 +32578,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>245.8118639189571</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162543</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>437.8531046913755</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33499,28 +33499,28 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33982,7 +33982,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>169.2687847673337</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33991,7 +33991,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34216,7 +34216,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>626.4629682828348</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>489.4415840126424</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067507</v>
@@ -34947,7 +34947,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949726</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313202</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35026,19 +35026,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>230.83623123219</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
@@ -35102,7 +35102,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
@@ -35111,7 +35111,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
         <v>54.881755458054</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637946</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091734</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676416</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928737</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961228</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634693</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>103.6778299969388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146267</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>303.8786972770453</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,19 +36913,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37387,22 +37387,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37630,7 +37630,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>27.13475084531539</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37639,7 +37639,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>483.8667238383904</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318685</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1837447.635143136</v>
+        <v>1839208.165445922</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>251.7205243996704</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>204.9088354658385</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>176.1581058090406</v>
       </c>
       <c r="T4" t="n">
-        <v>93.56176698799894</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>154.2780473449588</v>
       </c>
       <c r="H5" t="n">
-        <v>218.510215667732</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>50.98074812542792</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>220.8789552701352</v>
+        <v>111.1822535959284</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>23.94563726208625</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>90.69811547110022</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444168</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>94.80184639741442</v>
       </c>
       <c r="D13" t="n">
-        <v>102.041750371295</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>27.24739666248626</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161920278</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>223.3486291137924</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5115415340516</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>99.76859704213612</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>59.44001103519371</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V34" t="n">
-        <v>206.2895129765288</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>158.7974735697944</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>111.321323070213</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1634.158487398107</v>
+        <v>1198.574246756696</v>
       </c>
       <c r="C2" t="n">
-        <v>1634.158487398107</v>
+        <v>1198.574246756696</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>1198.574246756696</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2355.36070671749</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2024.297819373919</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>2024.297819373919</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>2024.297819373919</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y2" t="n">
-        <v>1634.158487398107</v>
+        <v>1585.174086820818</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4512,25 +4512,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1458.508639459305</v>
       </c>
       <c r="T4" t="n">
-        <v>1242.727130408528</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="U4" t="n">
-        <v>1242.727130408528</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="V4" t="n">
-        <v>1242.727130408528</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="W4" t="n">
-        <v>1242.727130408528</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="X4" t="n">
-        <v>1014.73757951051</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
         <v>1014.73757951051</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1505.04202752539</v>
+        <v>1797.459220126683</v>
       </c>
       <c r="C5" t="n">
-        <v>1505.04202752539</v>
+        <v>1428.496703186271</v>
       </c>
       <c r="D5" t="n">
-        <v>1146.776328918639</v>
+        <v>1070.231004579521</v>
       </c>
       <c r="E5" t="n">
-        <v>760.9880763203951</v>
+        <v>684.4427519812766</v>
       </c>
       <c r="F5" t="n">
-        <v>350.0021715307875</v>
+        <v>273.4568471916691</v>
       </c>
       <c r="G5" t="n">
-        <v>338.3378252954805</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923561</v>
@@ -4588,31 +4588,31 @@
         <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400154</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.50778578647</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.04202752539</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="Y5" t="n">
-        <v>1505.04202752539</v>
+        <v>2184.059060190805</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.543024838023</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694947</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657491</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378422</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255065</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431134</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>102.742491745203</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4764,13 +4764,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037536</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959889</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854563</v>
+        <v>652.5759934195833</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450446</v>
+        <v>652.5759934195833</v>
       </c>
       <c r="D8" t="n">
-        <v>359.3403385450446</v>
+        <v>652.5759934195833</v>
       </c>
       <c r="E8" t="n">
-        <v>359.3403385450446</v>
+        <v>652.5759934195833</v>
       </c>
       <c r="F8" t="n">
-        <v>352.3948377958412</v>
+        <v>241.5900886299757</v>
       </c>
       <c r="G8" t="n">
-        <v>340.7304915605341</v>
+        <v>229.9257423946686</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816075</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
@@ -4825,31 +4825,31 @@
         <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400154</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400154</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.04202752539</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549578</v>
+        <v>652.5759934195833</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P9" t="n">
         <v>2239.046898434118</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1006.01552520271</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>837.0793422748033</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>686.9627028624675</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>539.0496092800744</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>392.159661782164</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>224.1731970904426</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>75.4342989539488</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4977,10 +4977,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074497</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>1408.45656917648</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>1187.66399003295</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168643</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362717</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191927</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349518</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.043492616112</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1051.622995973711</v>
+        <v>801.6918836312003</v>
       </c>
       <c r="C13" t="n">
-        <v>882.686813045804</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015258</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.415575117241</v>
+        <v>983.34034846144</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.622995973711</v>
+        <v>983.34034846144</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245692</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403282</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>733.4550657171314</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1653.302830625879</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1363.885660588919</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>1135.896109690901</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>915.1035305473712</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5527,16 +5527,16 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5348780504994</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V19" t="n">
-        <v>1682.382642959247</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W19" t="n">
-        <v>1392.965472922287</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X19" t="n">
-        <v>1164.975922024269</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y19" t="n">
-        <v>944.1833428807391</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="20">
@@ -5740,37 +5740,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5889,16 +5889,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,10 +5980,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424041</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D25" t="n">
-        <v>376.4492432300683</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>376.4492432300683</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>376.4492432300683</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6186,13 +6186,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="26">
@@ -6232,16 +6232,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2319.876964645598</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>810.0653816078141</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>641.1291986799072</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675714</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1729.913146516562</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1440.495976479601</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1212.506425581584</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>991.7138464380538</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7159,37 +7159,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7213,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7371,13 +7371,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7399,25 +7399,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7429,7 +7429,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
         <v>402.7245934908939</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,37 +7639,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2267.47159895366</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1723.711884091971</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>240.4465442417431</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111053</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.449012614385</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154992</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.9556134883066534</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>72.44497470121341</v>
       </c>
       <c r="D13" t="n">
-        <v>46.57372264691732</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.9994244361416</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>65.5498640939296</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>28.78901421003556</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>26.01259675821728</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>121.5862749664509</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V34" t="n">
-        <v>45.84813034729919</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>40.32043864788574</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>69.70496293143164</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>875001.9222469046</v>
+        <v>875001.9222469045</v>
       </c>
     </row>
     <row r="6">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>875001.9222469046</v>
+        <v>875001.9222469045</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="F2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907544</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907534</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="J2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.954790754</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
         <v>544823.954790754</v>
@@ -26349,10 +26349,10 @@
         <v>544823.9547907537</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="P2" t="n">
         <v>544823.9547907541</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245467</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26423,7 +26423,7 @@
         <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26478,10 +26478,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-787804.3616192364</v>
+        <v>-787804.3616192366</v>
       </c>
       <c r="C6" t="n">
-        <v>326947.421956683</v>
+        <v>326947.4219566833</v>
       </c>
       <c r="D6" t="n">
-        <v>326947.4219566827</v>
+        <v>326947.4219566829</v>
       </c>
       <c r="E6" t="n">
-        <v>-72248.70833878795</v>
+        <v>-71936.06700986742</v>
       </c>
       <c r="F6" t="n">
-        <v>435236.7332857581</v>
+        <v>435549.3746146793</v>
       </c>
       <c r="G6" t="n">
-        <v>435236.7332857582</v>
+        <v>435549.3746146797</v>
       </c>
       <c r="H6" t="n">
-        <v>435236.7332857582</v>
+        <v>435549.3746146791</v>
       </c>
       <c r="I6" t="n">
-        <v>435236.7332857579</v>
+        <v>435549.3746146794</v>
       </c>
       <c r="J6" t="n">
-        <v>267631.5554757754</v>
+        <v>267944.1968046965</v>
       </c>
       <c r="K6" t="n">
-        <v>435236.7332857578</v>
+        <v>435549.3746146793</v>
       </c>
       <c r="L6" t="n">
-        <v>435236.733285758</v>
+        <v>435549.3746146793</v>
       </c>
       <c r="M6" t="n">
-        <v>302629.4395568309</v>
+        <v>302942.0808857519</v>
       </c>
       <c r="N6" t="n">
-        <v>435236.7332857578</v>
+        <v>435549.3746146795</v>
       </c>
       <c r="O6" t="n">
-        <v>435236.7332857579</v>
+        <v>435549.3746146795</v>
       </c>
       <c r="P6" t="n">
-        <v>435236.7332857581</v>
+        <v>435549.3746146793</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26965,43 +26965,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>433.9106082241353</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>433.9106082241345</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996104</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996104</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996104</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>130.2098456725914</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>46.13641466262357</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>18.5043545526969</v>
       </c>
       <c r="T4" t="n">
-        <v>127.186929009213</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>257.2696554279952</v>
       </c>
       <c r="H5" t="n">
-        <v>82.50833689467333</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193763</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>80.13959729227014</v>
+        <v>189.836298966477</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>80.85095794181433</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>195.5290386501004</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31281,7 +31281,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
@@ -31299,7 +31299,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166594</v>
@@ -31314,13 +31314,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
@@ -31369,22 +31369,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
@@ -31451,10 +31451,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
@@ -31469,13 +31469,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
         <v>0.09187523529024984</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319833</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543339</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043693</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192539</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34137,7 +34137,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
@@ -34786,7 +34786,7 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>607.3778765237837</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34798,10 +34798,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419598</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067507</v>
@@ -34947,7 +34947,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949726</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313202</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35026,19 +35026,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961229</v>
+        <v>521.873694610508</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
@@ -35102,7 +35102,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
@@ -35111,7 +35111,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
         <v>54.881755458054</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>336.3802954844296</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875389</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997496</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902372</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359206</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
